--- a/data/test-data.xlsx
+++ b/data/test-data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -45,9 +45,6 @@
   <si>
     <t xml:space="preserve">Pressure Gradient</t>
   </si>
-  <si>
-    <t xml:space="preserve">Wind Gradient</t>
-  </si>
 </sst>
 </file>
 
@@ -57,11 +54,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -77,12 +75,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,11 +134,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -163,21 +155,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I91" activeCellId="0" sqref="I91"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.47"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -205,9 +196,6 @@
       <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -235,9 +223,6 @@
         <f aca="false">INT(F3-F2)</f>
         <v>3</v>
       </c>
-      <c r="I2" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -265,9 +250,6 @@
         <f aca="false">INT(F4-F3)</f>
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
@@ -295,9 +277,6 @@
         <f aca="false">INT(F5-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
@@ -325,9 +304,6 @@
         <f aca="false">INT(F6-F5)</f>
         <v>0</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
@@ -355,9 +331,6 @@
         <f aca="false">INT(F7-F6)</f>
         <v>0</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -385,9 +358,6 @@
         <f aca="false">INT(F8-F7)</f>
         <v>-1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
@@ -415,9 +385,6 @@
         <f aca="false">INT(F9-F8)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
@@ -445,9 +412,6 @@
         <f aca="false">INT(F10-F9)</f>
         <v>7</v>
       </c>
-      <c r="I9" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
@@ -475,9 +439,6 @@
         <f aca="false">INT(F11-F10)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
@@ -505,9 +466,6 @@
         <f aca="false">INT(F12-F11)</f>
         <v>-8</v>
       </c>
-      <c r="I11" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
@@ -535,9 +493,6 @@
         <f aca="false">INT(F13-F12)</f>
         <v>-5</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
@@ -565,9 +520,6 @@
         <f aca="false">INT(F14-F13)</f>
         <v>4</v>
       </c>
-      <c r="I13" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
@@ -595,9 +547,6 @@
         <f aca="false">INT(F15-F14)</f>
         <v>-3</v>
       </c>
-      <c r="I14" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
@@ -625,9 +574,6 @@
         <f aca="false">INT(F16-F15)</f>
         <v>13</v>
       </c>
-      <c r="I15" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -655,9 +601,6 @@
         <f aca="false">INT(F17-F16)</f>
         <v>-9</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -685,9 +628,6 @@
         <f aca="false">INT(F18-F17)</f>
         <v>2</v>
       </c>
-      <c r="I17" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
@@ -715,9 +655,6 @@
         <f aca="false">INT(F19-F18)</f>
         <v>-1</v>
       </c>
-      <c r="I18" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
@@ -745,9 +682,6 @@
         <f aca="false">INT(F20-F19)</f>
         <v>-16</v>
       </c>
-      <c r="I19" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
@@ -775,9 +709,6 @@
         <f aca="false">INT(F21-F20)</f>
         <v>-16</v>
       </c>
-      <c r="I20" s="0" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
@@ -805,9 +736,6 @@
         <f aca="false">INT(F22-F21)</f>
         <v>-5</v>
       </c>
-      <c r="I21" s="0" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
@@ -835,9 +763,6 @@
         <f aca="false">INT(F23-F22)</f>
         <v>6</v>
       </c>
-      <c r="I22" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -865,9 +790,6 @@
         <f aca="false">INT(F24-F23)</f>
         <v>2</v>
       </c>
-      <c r="I23" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
@@ -895,9 +817,6 @@
         <f aca="false">INT(F25-F24)</f>
         <v>1</v>
       </c>
-      <c r="I24" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
@@ -925,9 +844,6 @@
         <f aca="false">INT(F26-F25)</f>
         <v>12</v>
       </c>
-      <c r="I25" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
@@ -955,9 +871,6 @@
         <f aca="false">INT(F27-F26)</f>
         <v>7</v>
       </c>
-      <c r="I26" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
@@ -985,9 +898,6 @@
         <f aca="false">INT(F28-F27)</f>
         <v>-6</v>
       </c>
-      <c r="I27" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
@@ -1015,9 +925,6 @@
         <f aca="false">INT(F29-F28)</f>
         <v>-10</v>
       </c>
-      <c r="I28" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
@@ -1045,9 +952,6 @@
         <f aca="false">INT(F30-F29)</f>
         <v>-4</v>
       </c>
-      <c r="I29" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
@@ -1075,9 +979,6 @@
         <f aca="false">INT(F31-F30)</f>
         <v>-2</v>
       </c>
-      <c r="I30" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
@@ -1105,9 +1006,6 @@
         <f aca="false">INT(F32-F31)</f>
         <v>-1</v>
       </c>
-      <c r="I31" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
@@ -1135,9 +1033,6 @@
         <f aca="false">INT(F33-F32)</f>
         <v>-1</v>
       </c>
-      <c r="I32" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
@@ -1165,9 +1060,6 @@
         <f aca="false">INT(F34-F33)</f>
         <v>-1</v>
       </c>
-      <c r="I33" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
@@ -1195,9 +1087,6 @@
         <f aca="false">INT(F35-F34)</f>
         <v>1</v>
       </c>
-      <c r="I34" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
@@ -1225,9 +1114,6 @@
         <f aca="false">INT(F36-F35)</f>
         <v>11</v>
       </c>
-      <c r="I35" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
@@ -1255,9 +1141,6 @@
         <f aca="false">INT(F37-F36)</f>
         <v>-1</v>
       </c>
-      <c r="I36" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
@@ -1285,9 +1168,6 @@
         <f aca="false">INT(F38-F37)</f>
         <v>-4</v>
       </c>
-      <c r="I37" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
@@ -1315,9 +1195,6 @@
         <f aca="false">INT(F39-F38)</f>
         <v>-5</v>
       </c>
-      <c r="I38" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
@@ -1345,9 +1222,6 @@
         <f aca="false">INT(F40-F39)</f>
         <v>0</v>
       </c>
-      <c r="I39" s="0" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
@@ -1375,9 +1249,6 @@
         <f aca="false">INT(F41-F40)</f>
         <v>4</v>
       </c>
-      <c r="I40" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -1405,9 +1276,6 @@
         <f aca="false">INT(F42-F41)</f>
         <v>8</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
@@ -1435,9 +1303,6 @@
         <f aca="false">INT(F43-F42)</f>
         <v>12</v>
       </c>
-      <c r="I42" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
@@ -1465,9 +1330,6 @@
         <f aca="false">INT(F44-F43)</f>
         <v>3</v>
       </c>
-      <c r="I43" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
@@ -1495,9 +1357,6 @@
         <f aca="false">INT(F45-F44)</f>
         <v>3</v>
       </c>
-      <c r="I44" s="0" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
@@ -1525,9 +1384,6 @@
         <f aca="false">INT(F46-F45)</f>
         <v>-6</v>
       </c>
-      <c r="I45" s="0" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
@@ -1555,9 +1411,6 @@
         <f aca="false">INT(F47-F46)</f>
         <v>-10</v>
       </c>
-      <c r="I46" s="0" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
@@ -1585,9 +1438,6 @@
         <f aca="false">INT(F48-F47)</f>
         <v>-7</v>
       </c>
-      <c r="I47" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
@@ -1615,9 +1465,6 @@
         <f aca="false">INT(F49-F48)</f>
         <v>0</v>
       </c>
-      <c r="I48" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
@@ -1645,9 +1492,6 @@
         <f aca="false">INT(F50-F49)</f>
         <v>-7</v>
       </c>
-      <c r="I49" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
@@ -1675,9 +1519,6 @@
         <f aca="false">INT(F51-F50)</f>
         <v>4</v>
       </c>
-      <c r="I50" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
@@ -1705,9 +1546,6 @@
         <f aca="false">INT(F52-F51)</f>
         <v>-6</v>
       </c>
-      <c r="I51" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
@@ -1735,9 +1573,6 @@
         <f aca="false">INT(F53-F52)</f>
         <v>3</v>
       </c>
-      <c r="I52" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
@@ -1765,9 +1600,6 @@
         <f aca="false">INT(F54-F53)</f>
         <v>6</v>
       </c>
-      <c r="I53" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
@@ -1795,9 +1627,6 @@
         <f aca="false">INT(F55-F54)</f>
         <v>9</v>
       </c>
-      <c r="I54" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
@@ -1825,9 +1654,6 @@
         <f aca="false">INT(F56-F55)</f>
         <v>-1</v>
       </c>
-      <c r="I55" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
@@ -1855,9 +1681,6 @@
         <f aca="false">INT(F57-F56)</f>
         <v>2</v>
       </c>
-      <c r="I56" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
@@ -1885,9 +1708,6 @@
         <f aca="false">INT(F58-F57)</f>
         <v>9</v>
       </c>
-      <c r="I57" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
@@ -1915,9 +1735,6 @@
         <f aca="false">INT(F59-F58)</f>
         <v>3</v>
       </c>
-      <c r="I58" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
@@ -1945,9 +1762,6 @@
         <f aca="false">INT(F60-F59)</f>
         <v>-5</v>
       </c>
-      <c r="I59" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
@@ -1975,9 +1789,6 @@
         <f aca="false">INT(F61-F60)</f>
         <v>-5</v>
       </c>
-      <c r="I60" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
@@ -2005,9 +1816,6 @@
         <f aca="false">INT(F62-F61)</f>
         <v>-2</v>
       </c>
-      <c r="I61" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
@@ -2035,9 +1843,6 @@
         <f aca="false">INT(F63-F62)</f>
         <v>-2</v>
       </c>
-      <c r="I62" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
@@ -2065,9 +1870,6 @@
         <f aca="false">INT(F64-F63)</f>
         <v>-4</v>
       </c>
-      <c r="I63" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
@@ -2095,9 +1897,6 @@
         <f aca="false">INT(F65-F64)</f>
         <v>6</v>
       </c>
-      <c r="I64" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
@@ -2125,9 +1924,6 @@
         <f aca="false">INT(F66-F65)</f>
         <v>2</v>
       </c>
-      <c r="I65" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
@@ -2155,9 +1951,6 @@
         <f aca="false">INT(F67-F66)</f>
         <v>-6</v>
       </c>
-      <c r="I66" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
@@ -2185,9 +1978,6 @@
         <f aca="false">INT(F68-F67)</f>
         <v>-3</v>
       </c>
-      <c r="I67" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
@@ -2215,9 +2005,6 @@
         <f aca="false">INT(F69-F68)</f>
         <v>-4</v>
       </c>
-      <c r="I68" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
@@ -2245,9 +2032,6 @@
         <f aca="false">INT(F70-F69)</f>
         <v>-10</v>
       </c>
-      <c r="I69" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
@@ -2275,9 +2059,6 @@
         <f aca="false">INT(F71-F70)</f>
         <v>-12</v>
       </c>
-      <c r="I70" s="0" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
@@ -2305,9 +2086,6 @@
         <f aca="false">INT(F72-F71)</f>
         <v>4</v>
       </c>
-      <c r="I71" s="0" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
@@ -2335,9 +2113,6 @@
         <f aca="false">INT(F73-F72)</f>
         <v>-7</v>
       </c>
-      <c r="I72" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
@@ -2365,9 +2140,6 @@
         <f aca="false">INT(F74-F73)</f>
         <v>15</v>
       </c>
-      <c r="I73" s="0" t="n">
-        <v>10</v>
-      </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
@@ -2395,9 +2167,6 @@
         <f aca="false">INT(F75-F74)</f>
         <v>7</v>
       </c>
-      <c r="I74" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
@@ -2425,9 +2194,6 @@
         <f aca="false">INT(F76-F75)</f>
         <v>6</v>
       </c>
-      <c r="I75" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
@@ -2455,9 +2221,6 @@
         <f aca="false">INT(F77-F76)</f>
         <v>4</v>
       </c>
-      <c r="I76" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
@@ -2485,9 +2248,6 @@
         <f aca="false">INT(F78-F77)</f>
         <v>-5</v>
       </c>
-      <c r="I77" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
@@ -2515,9 +2275,6 @@
         <f aca="false">INT(F79-F78)</f>
         <v>0</v>
       </c>
-      <c r="I78" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
@@ -2545,9 +2302,6 @@
         <f aca="false">INT(F80-F79)</f>
         <v>3</v>
       </c>
-      <c r="I79" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
@@ -2575,9 +2329,6 @@
         <f aca="false">INT(F81-F80)</f>
         <v>-3</v>
       </c>
-      <c r="I80" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
@@ -2605,9 +2356,6 @@
         <f aca="false">INT(F82-F81)</f>
         <v>-2</v>
       </c>
-      <c r="I81" s="0" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
@@ -2635,9 +2383,6 @@
         <f aca="false">INT(F83-F82)</f>
         <v>-2</v>
       </c>
-      <c r="I82" s="0" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
@@ -2665,9 +2410,6 @@
         <f aca="false">INT(F84-F83)</f>
         <v>-4</v>
       </c>
-      <c r="I83" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
@@ -2695,9 +2437,6 @@
         <f aca="false">INT(F85-F84)</f>
         <v>-2</v>
       </c>
-      <c r="I84" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -2725,9 +2464,6 @@
         <f aca="false">INT(F86-F85)</f>
         <v>-7</v>
       </c>
-      <c r="I85" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -2755,9 +2491,6 @@
         <f aca="false">INT(F87-F86)</f>
         <v>8</v>
       </c>
-      <c r="I86" s="0" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
@@ -2785,9 +2518,6 @@
         <f aca="false">INT(F88-F87)</f>
         <v>3</v>
       </c>
-      <c r="I87" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
@@ -2815,9 +2545,6 @@
         <f aca="false">INT(F89-F88)</f>
         <v>2</v>
       </c>
-      <c r="I88" s="0" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
@@ -2845,9 +2572,6 @@
         <f aca="false">INT(F90-F89)</f>
         <v>-1</v>
       </c>
-      <c r="I89" s="0" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
@@ -2875,9 +2599,6 @@
         <f aca="false">INT(F91-F90)</f>
         <v>-7</v>
       </c>
-      <c r="I90" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
@@ -2903,9 +2624,6 @@
       </c>
       <c r="H91" s="0" t="n">
         <v>-7</v>
-      </c>
-      <c r="I91" s="0" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
